--- a/src/EQD STRUCT/MissingInMX.xlsx
+++ b/src/EQD STRUCT/MissingInMX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari\Desktop\Catch All\EQD STRUCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari\Desktop\report_analysis-main\src\EQD STRUCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B9D0F-837C-4588-BD47-8395B5D85044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5060F-65DC-471D-812F-1B696407F47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FC5F12C-5AA0-42FB-A7CC-0C0A52A9CA1F}"/>
   </bookViews>
@@ -485,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BD5F0-C427-4397-BF6C-847868919DB2}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
@@ -768,6 +768,10 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
